--- a/Instances/K0011525_NonStationary_b2_fe25_en_rk50_ll0_l20_HTrue6_c2.xlsx
+++ b/Instances/K0011525_NonStationary_b2_fe25_en_rk50_ll0_l20_HTrue6_c2.xlsx
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>17.55942007211538</v>
+        <v>13.69921875</v>
       </c>
       <c r="I2" t="n">
         <v>200</v>
@@ -2162,7 +2162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2312,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2514,146 +2514,6 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>111</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>94</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>111</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>102</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2668,7 +2528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2818,7 +2678,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.875</v>
+        <v>13.125</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2853,7 +2713,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1875</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2888,7 +2748,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.875</v>
+        <v>23.1875</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2923,7 +2783,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.90625</v>
+        <v>20.859375</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2958,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.4609375</v>
+        <v>25.1875</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2993,7 +2853,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.85546875</v>
+        <v>19.93359375</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -3020,146 +2880,6 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>27.533203125</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>23.408203125</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>27.69580078125</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>25.47509765625</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3192,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3200,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3208,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1224</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
